--- a/data/trans_orig/IP19C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A627578E-D7C8-4118-8962-F83237394E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{607D47E3-CC13-455A-B616-59A5E0CC237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF69A2DA-3D96-4455-A2D3-051E3477ECC1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D3FEC84-49AD-41AD-969D-CD0C3D68A479}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="184">
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -113,7 +113,7 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -122,478 +122,472 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
   </si>
   <si>
     <t>99,54%</t>
@@ -1008,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A103B1A8-F7F0-4165-B4D7-3DA07ABA6ED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9568FAF-394C-4016-981A-9FDFB406E762}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1633,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,10 +1642,10 @@
         <v>360512</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1666,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1678,10 +1672,10 @@
         <v>711442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC21152-8211-443C-B042-00280C7E7D4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8008FBBF-4CA5-41A9-BD90-7872FFFD31B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1776,7 +1770,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1889,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1904,7 +1898,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1919,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,7 +1931,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -1952,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -1967,7 +1961,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2038,13 +2032,13 @@
         <v>1481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2053,13 +2047,13 @@
         <v>3230</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2068,13 +2062,13 @@
         <v>4711</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,10 +2083,10 @@
         <v>239432</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2104,13 +2098,13 @@
         <v>217248</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -2119,13 +2113,13 @@
         <v>456680</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2187,13 @@
         <v>742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2214,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2223,13 +2217,13 @@
         <v>742</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,10 +2238,10 @@
         <v>81383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2262,7 +2256,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2271,13 +2265,13 @@
         <v>237</v>
       </c>
       <c r="N11" s="7">
-        <v>166932</v>
+        <v>166931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2322,7 +2316,7 @@
         <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>167674</v>
+        <v>167673</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2348,13 +2342,13 @@
         <v>2223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2363,13 +2357,13 @@
         <v>3230</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2378,13 +2372,13 @@
         <v>5452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2393,13 @@
         <v>363779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>499</v>
@@ -2414,13 +2408,13 @@
         <v>350761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>1020</v>
@@ -2429,13 +2423,13 @@
         <v>714540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2485,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D231C3-D43C-4EFB-8773-46EF97982124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DF7140-D6BB-478F-8A5A-190D0288BC5F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,7 +2521,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2634,13 +2628,13 @@
         <v>700</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2655,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2664,13 +2658,13 @@
         <v>700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,10 +2679,10 @@
         <v>27441</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2703,7 +2697,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2715,10 +2709,10 @@
         <v>49580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2795,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2804,13 +2798,13 @@
         <v>1388</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2819,13 +2813,13 @@
         <v>1388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2837,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2855,10 +2849,10 @@
         <v>251352</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2870,10 +2864,10 @@
         <v>503521</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2950,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2965,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2980,7 +2974,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,7 +2992,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3013,7 +3007,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3028,7 +3022,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3099,13 +3093,13 @@
         <v>700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3114,13 +3108,13 @@
         <v>1388</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3129,13 +3123,13 @@
         <v>2088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,10 +3144,10 @@
         <v>367308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3165,10 +3159,10 @@
         <v>361230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3180,13 +3174,13 @@
         <v>728538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,7 +3236,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5F05DE-5A77-4785-9DD2-2385CF26AC3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67971F9C-49EB-4DC8-90D8-BEB055A8BD2B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3278,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3391,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3400,13 +3394,13 @@
         <v>732</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3415,13 +3409,13 @@
         <v>732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3433,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3451,10 +3445,10 @@
         <v>28407</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3466,10 +3460,10 @@
         <v>52836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3546,7 +3540,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3555,13 +3549,13 @@
         <v>1661</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3573,10 +3567,10 @@
         <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,10 +3585,10 @@
         <v>309675</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3606,13 +3600,13 @@
         <v>266788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
@@ -3624,10 +3618,10 @@
         <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3689,13 @@
         <v>838</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3710,13 +3704,13 @@
         <v>3418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3725,13 +3719,13 @@
         <v>4256</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,10 +3740,10 @@
         <v>128805</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3761,13 +3755,13 @@
         <v>99017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>311</v>
@@ -3776,13 +3770,13 @@
         <v>227822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3844,13 @@
         <v>1894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3865,13 +3859,13 @@
         <v>5811</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3880,13 +3874,13 @@
         <v>7705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,10 +3895,10 @@
         <v>462909</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3916,13 +3910,13 @@
         <v>394213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>1113</v>
@@ -3931,13 +3925,13 @@
         <v>857121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +3987,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{607D47E3-CC13-455A-B616-59A5E0CC237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{287660CA-E028-43B5-9F07-2A30BCE7F3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D3FEC84-49AD-41AD-969D-CD0C3D68A479}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E42F66D5-06EA-4525-A422-088701207835}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="178">
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>2,7%</t>
+  </si>
+  <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
     <t>1,42%</t>
   </si>
   <si>
@@ -95,211 +95,202 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
     <t>98,58%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>98,92%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,47%</t>
+    <t>99,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>4,76%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>95,24%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
+    <t>99,38%</t>
+  </si>
+  <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>1,49%</t>
   </si>
   <si>
+    <t>97,26%</t>
+  </si>
+  <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -308,289 +299,280 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2016 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>98,45%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>99,62%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
     <t>Menores según su última visita al dentista fue por tratamiento de las enfermedades de las encias en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9568FAF-394C-4016-981A-9FDFB406E762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103329DB-4408-478A-A37B-F1533CF6FDA7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1171,10 +1153,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>42891</v>
+        <v>46926</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1186,10 +1168,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I5" s="7">
-        <v>46926</v>
+        <v>42891</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1222,25 +1204,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1275,31 +1257,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>525</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -1326,34 +1308,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>343</v>
+      </c>
+      <c r="D8" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>245198</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>343</v>
-      </c>
-      <c r="I8" s="7">
-        <v>228322</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>714</v>
@@ -1377,25 +1359,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1430,31 +1412,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>695</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>36</v>
@@ -1481,34 +1463,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>109</v>
+      </c>
+      <c r="D11" s="7">
+        <v>75683</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>108</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>72422</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>109</v>
-      </c>
-      <c r="I11" s="7">
-        <v>75683</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>217</v>
@@ -1535,7 +1517,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1550,7 +1532,7 @@
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1585,31 +1567,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1219</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>46</v>
@@ -1627,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,34 +1618,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="D14" s="7">
-        <v>360512</v>
+        <v>350930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>543</v>
+      </c>
+      <c r="I14" s="7">
+        <v>360512</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>522</v>
-      </c>
-      <c r="I14" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>1065</v>
@@ -1672,10 +1654,10 @@
         <v>711442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1687,25 +1669,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1734,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8008FBBF-4CA5-41A9-BD90-7872FFFD31B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A40D188-2181-4AD1-AD36-1041B2C5CF2A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1770,7 +1752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1883,7 +1865,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1898,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1913,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,31 +1904,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7">
-        <v>42963</v>
+        <v>47964</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>47964</v>
+        <v>42963</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -1961,7 +1943,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1973,25 +1955,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42963</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47964</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2026,34 +2008,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3230</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1481</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3230</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2062,13 +2044,13 @@
         <v>4711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,34 +2059,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>310</v>
+      </c>
+      <c r="D8" s="7">
+        <v>217248</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="7">
         <v>345</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>239432</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>310</v>
-      </c>
-      <c r="I8" s="7">
-        <v>217248</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -2128,25 +2110,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>315</v>
+      </c>
+      <c r="D9" s="7">
+        <v>220478</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>240913</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>315</v>
-      </c>
-      <c r="I9" s="7">
-        <v>220478</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2181,31 +2163,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>742</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>78</v>
@@ -2217,13 +2199,13 @@
         <v>742</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,34 +2214,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>120</v>
+      </c>
+      <c r="D11" s="7">
+        <v>85548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>117</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>81383</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>120</v>
-      </c>
-      <c r="I11" s="7">
-        <v>85548</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -2268,10 +2250,10 @@
         <v>166931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2283,25 +2265,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>85548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2336,34 +2318,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>2223</v>
+        <v>3230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>3230</v>
+        <v>2223</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2372,13 +2354,13 @@
         <v>5452</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,49 +2369,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>499</v>
+      </c>
+      <c r="D14" s="7">
+        <v>350761</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="7">
         <v>521</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>363779</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="7">
-        <v>499</v>
-      </c>
-      <c r="I14" s="7">
-        <v>350761</v>
-      </c>
       <c r="J14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>1020</v>
       </c>
       <c r="N14" s="7">
-        <v>714540</v>
+        <v>714541</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,25 +2420,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>504</v>
+      </c>
+      <c r="D15" s="7">
+        <v>353991</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>366002</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>504</v>
-      </c>
-      <c r="I15" s="7">
-        <v>353991</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2471,7 +2453,7 @@
         <v>1028</v>
       </c>
       <c r="N15" s="7">
-        <v>719992</v>
+        <v>719993</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2485,7 +2467,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DF7140-D6BB-478F-8A5A-190D0288BC5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1866222F-9A46-4091-A1E7-2964E439129F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2521,7 +2503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2622,34 +2604,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>700</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2658,13 +2640,13 @@
         <v>700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,34 +2655,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22139</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>39</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>27441</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>33</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22139</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -2709,10 +2691,10 @@
         <v>49580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2724,25 +2706,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22139</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28141</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22139</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2777,34 +2759,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1388</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1388</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2813,13 +2795,13 @@
         <v>1388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,34 +2810,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>368</v>
+      </c>
+      <c r="D8" s="7">
+        <v>251352</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>347</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>252170</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>368</v>
-      </c>
-      <c r="I8" s="7">
-        <v>251352</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>715</v>
@@ -2864,10 +2846,10 @@
         <v>503521</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2879,25 +2861,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>370</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252740</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252170</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>370</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252740</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2944,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2959,7 +2941,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2974,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,31 +2965,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7">
-        <v>87698</v>
+        <v>87740</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="7">
-        <v>87740</v>
+        <v>87698</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3034,25 +3016,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7">
+        <v>87740</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>123</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>87698</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>124</v>
-      </c>
-      <c r="I12" s="7">
-        <v>87740</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3087,10 +3069,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>700</v>
+        <v>1388</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>121</v>
@@ -3099,22 +3081,22 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>700</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1388</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3123,13 +3105,13 @@
         <v>2088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,31 +3120,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="D14" s="7">
-        <v>367308</v>
+        <v>361230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="I14" s="7">
-        <v>361230</v>
+        <v>367308</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3174,10 +3156,10 @@
         <v>728538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3189,25 +3171,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>527</v>
+      </c>
+      <c r="D15" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>510</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>368008</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>527</v>
-      </c>
-      <c r="I15" s="7">
-        <v>362618</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3236,7 +3218,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67971F9C-49EB-4DC8-90D8-BEB055A8BD2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC05DF61-B16F-4865-B695-8ECBE8EB9485}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3272,7 +3254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3373,49 +3355,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>745</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>732</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,46 +3406,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28985</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
         <v>31</v>
       </c>
-      <c r="D5" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>25484</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7">
-        <v>28407</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
       </c>
       <c r="N5" s="7">
-        <v>52836</v>
+        <v>54469</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3475,25 +3457,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>31</v>
       </c>
-      <c r="D6" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>37</v>
-      </c>
       <c r="I6" s="7">
-        <v>29139</v>
+        <v>25484</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3508,7 +3490,7 @@
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>53568</v>
+        <v>55214</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3528,49 +3510,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1648</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>1056</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>1332</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1661</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>2716</v>
+        <v>2980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,25 +3561,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>364</v>
+      </c>
+      <c r="D8" s="7">
+        <v>260179</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
-        <v>309675</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>364</v>
-      </c>
       <c r="I8" s="7">
-        <v>266788</v>
+        <v>321683</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>149</v>
@@ -3606,16 +3588,16 @@
         <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
       </c>
       <c r="N8" s="7">
-        <v>576465</v>
+        <v>581862</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>152</v>
@@ -3630,25 +3612,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>367</v>
+      </c>
+      <c r="D9" s="7">
+        <v>261827</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
-        <v>310731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>367</v>
-      </c>
       <c r="I9" s="7">
-        <v>268449</v>
+        <v>323015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3663,7 +3645,7 @@
         <v>739</v>
       </c>
       <c r="N9" s="7">
-        <v>579181</v>
+        <v>584842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3683,49 +3665,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>838</v>
+        <v>3365</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>155</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>3418</v>
+        <v>1045</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4256</v>
+        <v>4410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,49 +3716,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>145</v>
+      </c>
+      <c r="D11" s="7">
+        <v>96711</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="7">
         <v>166</v>
       </c>
-      <c r="D11" s="7">
-        <v>128805</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>134900</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>145</v>
-      </c>
-      <c r="I11" s="7">
-        <v>99017</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>311</v>
       </c>
       <c r="N11" s="7">
-        <v>227822</v>
+        <v>231611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,25 +3767,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100076</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="D12" s="7">
-        <v>129643</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>150</v>
-      </c>
       <c r="I12" s="7">
-        <v>102435</v>
+        <v>135945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3818,7 +3800,7 @@
         <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>232078</v>
+        <v>236021</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3838,49 +3820,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5758</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
-        <v>1894</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>2377</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5811</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>7705</v>
+        <v>8135</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,49 +3871,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>545</v>
+      </c>
+      <c r="D14" s="7">
+        <v>385875</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
         <v>568</v>
       </c>
-      <c r="D14" s="7">
-        <v>462909</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>482067</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>545</v>
-      </c>
-      <c r="I14" s="7">
-        <v>394213</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>1113</v>
       </c>
       <c r="N14" s="7">
-        <v>857121</v>
+        <v>867941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,25 +3922,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>554</v>
+      </c>
+      <c r="D15" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>554</v>
-      </c>
       <c r="I15" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3973,7 +3955,7 @@
         <v>1124</v>
       </c>
       <c r="N15" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3987,7 +3969,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
